--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
   <si>
     <t>※ 젯팅 장비 가동율 관리 예시</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -210,121 +210,10 @@
     <t>15.08</t>
   </si>
   <si>
-    <t>16.08</t>
-  </si>
-  <si>
-    <t>17.08</t>
-  </si>
-  <si>
-    <t>18.08</t>
-  </si>
-  <si>
-    <t>19.08</t>
-  </si>
-  <si>
-    <t>20.08</t>
-  </si>
-  <si>
-    <t>21.08</t>
-  </si>
-  <si>
-    <t>22.08</t>
-  </si>
-  <si>
-    <t>23.08</t>
-  </si>
-  <si>
     <t>11.08</t>
   </si>
   <si>
     <t>V4_JET_007</t>
-  </si>
-  <si>
-    <t>V4_JET_008</t>
-  </si>
-  <si>
-    <t>V4_JET_009</t>
-  </si>
-  <si>
-    <t>V4_JET_010</t>
-  </si>
-  <si>
-    <t>V4_JET_011</t>
-  </si>
-  <si>
-    <t>V4_JET_012</t>
-  </si>
-  <si>
-    <t>V4_JET_013</t>
-  </si>
-  <si>
-    <t>V4_JET_014</t>
-  </si>
-  <si>
-    <t>V4_JET_015</t>
-  </si>
-  <si>
-    <t>V4_JET_016</t>
-  </si>
-  <si>
-    <t>V4_JET_017</t>
-  </si>
-  <si>
-    <t>V4_JET_018</t>
-  </si>
-  <si>
-    <t>V4_JET_019</t>
-  </si>
-  <si>
-    <t>V4_JET_020</t>
-  </si>
-  <si>
-    <t>V4_JET_021</t>
-  </si>
-  <si>
-    <t>V4_JET_024</t>
-  </si>
-  <si>
-    <t>V4_JET_025</t>
-  </si>
-  <si>
-    <t>V4_JET_026</t>
-  </si>
-  <si>
-    <t>V4_JET_027</t>
-  </si>
-  <si>
-    <t>V4_JET_028</t>
-  </si>
-  <si>
-    <t>V4_JET_029</t>
-  </si>
-  <si>
-    <t>V4_JET_030</t>
-  </si>
-  <si>
-    <t>V4_JET_031</t>
-  </si>
-  <si>
-    <t>V4_JET_032</t>
-  </si>
-  <si>
-    <t>V4_JET_033</t>
-  </si>
-  <si>
-    <t>V4_JET_034</t>
-  </si>
-  <si>
-    <t>V4_JET_035</t>
-  </si>
-  <si>
-    <t>V4_JET_036</t>
-  </si>
-  <si>
-    <t>V2_JET_022</t>
-  </si>
-  <si>
-    <t>V1_JET_023</t>
   </si>
   <si>
     <t>capa/일</t>
@@ -529,7 +418,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -601,6 +490,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,15 +814,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ40"/>
+  <dimension ref="A1:BN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="AX2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK17" sqref="BK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -938,11 +831,11 @@
     <col min="36" max="36" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="15.75">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:66" ht="15.75">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -972,7 +865,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:114" ht="15.75">
+    <row r="2" spans="1:66" ht="15.75">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1004,177 +897,113 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:114" ht="15.75">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:66" ht="15.75">
+      <c r="A3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="25" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="25" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="25" t="s">
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="25" t="s">
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="25" t="s">
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="25" t="s">
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="25" t="s">
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="BV3" s="26"/>
-      <c r="BW3" s="26"/>
-      <c r="BX3" s="26"/>
-      <c r="BY3" s="26"/>
-      <c r="BZ3" s="27"/>
-      <c r="CA3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="CB3" s="26"/>
-      <c r="CC3" s="26"/>
-      <c r="CD3" s="26"/>
-      <c r="CE3" s="26"/>
-      <c r="CF3" s="27"/>
-      <c r="CG3" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="CH3" s="26"/>
-      <c r="CI3" s="26"/>
-      <c r="CJ3" s="26"/>
-      <c r="CK3" s="26"/>
-      <c r="CL3" s="27"/>
-      <c r="CM3" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="CN3" s="26"/>
-      <c r="CO3" s="26"/>
-      <c r="CP3" s="26"/>
-      <c r="CQ3" s="26"/>
-      <c r="CR3" s="27"/>
-      <c r="CS3" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="CT3" s="26"/>
-      <c r="CU3" s="26"/>
-      <c r="CV3" s="26"/>
-      <c r="CW3" s="26"/>
-      <c r="CX3" s="27"/>
-      <c r="CY3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="CZ3" s="26"/>
-      <c r="DA3" s="26"/>
-      <c r="DB3" s="26"/>
-      <c r="DC3" s="26"/>
-      <c r="DD3" s="27"/>
-      <c r="DE3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="DF3" s="26"/>
-      <c r="DG3" s="26"/>
-      <c r="DH3" s="26"/>
-      <c r="DI3" s="26"/>
-      <c r="DJ3" s="27"/>
-    </row>
-    <row r="4" spans="1:114" ht="31.5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="27"/>
+      <c r="BM3" s="27"/>
+      <c r="BN3" s="28"/>
+    </row>
+    <row r="4" spans="1:66" ht="31.5">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>14</v>
@@ -1355,152 +1184,8 @@
       <c r="BN4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BO4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BP4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BQ4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="BS4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BT4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BU4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BV4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BW4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BX4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="BY4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BZ4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CA4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="CB4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CC4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CD4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="CF4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CG4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="CH4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CI4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="CK4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="CL4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CM4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CO4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="CQ4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="CR4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CS4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="CT4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CU4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="CV4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="CW4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="CX4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CY4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="CZ4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="DA4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="DB4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="DC4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="DD4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="DE4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="DF4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="DG4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="DI4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="DJ4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:114" ht="15.75">
+    </row>
+    <row r="5" spans="1:66" ht="15.75">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1719,168 +1404,8 @@
       <c r="BN5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BQ5" s="15">
-        <f>3600/BP5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BR5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BS5" s="18">
-        <f t="shared" ref="BS5:BS10" si="8">(BR5/BQ5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BT5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BW5" s="15">
-        <f>3600/BV5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BX5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BY5" s="18">
-        <f t="shared" ref="BY5:BY10" si="9">(BX5/BW5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BZ5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="CA5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CB5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CC5" s="15">
-        <f>3600/CB5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CD5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CE5" s="18">
-        <f t="shared" ref="CE5:CE10" si="10">(CD5/CC5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CF5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="CG5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CH5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CI5" s="15">
-        <f>3600/CH5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CJ5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CK5" s="18">
-        <f t="shared" ref="CK5:CK10" si="11">(CJ5/CI5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CL5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="CM5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CN5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CO5" s="15">
-        <f>3600/CN5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CP5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CQ5" s="18">
-        <f t="shared" ref="CQ5:CQ10" si="12">(CP5/CO5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CR5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="CS5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CT5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CU5" s="15">
-        <f>3600/CT5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CV5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CW5" s="18">
-        <f t="shared" ref="CW5:CW10" si="13">(CV5/CU5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CX5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="CY5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CZ5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DA5" s="15">
-        <f>3600/CZ5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DB5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DC5" s="18">
-        <f t="shared" ref="DC5:DC10" si="14">(DB5/DA5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DD5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="DE5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DF5" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DG5" s="15">
-        <f>3600/DF5*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DH5" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DI5" s="18">
-        <f t="shared" ref="DI5:DI10" si="15">(DH5/DG5)*0.85</f>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DJ5" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:114" ht="15.75">
+    </row>
+    <row r="6" spans="1:66" ht="15.75">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1902,14 +1427,14 @@
         <v>3.4</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" ref="I6:I10" si="16">3600/H6*$E$2*$F$1</f>
+        <f t="shared" ref="I6:I10" si="8">3600/H6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="J6" s="16">
         <v>14567</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" ref="K6:K10" si="17">(J6/I6)*0.85</f>
+        <f t="shared" ref="K6:K10" si="9">(J6/I6)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
       <c r="L6" s="17" t="s">
@@ -1922,7 +1447,7 @@
         <v>3.4</v>
       </c>
       <c r="O6" s="15">
-        <f t="shared" ref="O6:O10" si="18">3600/N6*$E$2*$F$1</f>
+        <f t="shared" ref="O6:O10" si="10">3600/N6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="P6" s="16">
@@ -1942,7 +1467,7 @@
         <v>3.4</v>
       </c>
       <c r="U6" s="15">
-        <f t="shared" ref="U6:U10" si="19">3600/T6*$E$2*$F$1</f>
+        <f t="shared" ref="U6:U10" si="11">3600/T6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="V6" s="16">
@@ -1962,7 +1487,7 @@
         <v>3.4</v>
       </c>
       <c r="AA6" s="15">
-        <f t="shared" ref="AA6:AA10" si="20">3600/Z6*$E$2*$F$1</f>
+        <f t="shared" ref="AA6:AA10" si="12">3600/Z6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AB6" s="16">
@@ -1982,7 +1507,7 @@
         <v>3.4</v>
       </c>
       <c r="AG6" s="15">
-        <f t="shared" ref="AG6:AG10" si="21">3600/AF6*$E$2*$F$1</f>
+        <f t="shared" ref="AG6:AG10" si="13">3600/AF6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AH6" s="16">
@@ -2002,7 +1527,7 @@
         <v>3.4</v>
       </c>
       <c r="AM6" s="15">
-        <f t="shared" ref="AM6:AM10" si="22">3600/AL6*$E$2*$F$1</f>
+        <f t="shared" ref="AM6:AM10" si="14">3600/AL6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AN6" s="16">
@@ -2022,7 +1547,7 @@
         <v>3.4</v>
       </c>
       <c r="AS6" s="15">
-        <f t="shared" ref="AS6:AS10" si="23">3600/AR6*$E$2*$F$1</f>
+        <f t="shared" ref="AS6:AS10" si="15">3600/AR6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AT6" s="16">
@@ -2042,7 +1567,7 @@
         <v>3.4</v>
       </c>
       <c r="AY6" s="15">
-        <f t="shared" ref="AY6:AY10" si="24">3600/AX6*$E$2*$F$1</f>
+        <f t="shared" ref="AY6:AY10" si="16">3600/AX6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ6" s="16">
@@ -2062,7 +1587,7 @@
         <v>3.4</v>
       </c>
       <c r="BE6" s="15">
-        <f t="shared" ref="BE6:BE10" si="25">3600/BD6*$E$2*$F$1</f>
+        <f t="shared" ref="BE6:BE10" si="17">3600/BD6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="BF6" s="16">
@@ -2082,181 +1607,21 @@
         <v>3.4</v>
       </c>
       <c r="BK6" s="15">
-        <f t="shared" ref="BK6:BK10" si="26">3600/BJ6*$E$2*$F$1</f>
+        <f t="shared" ref="BK6:BK10" si="18">3600/BJ6*$E$2*$F$1</f>
         <v>20964.705882352941</v>
       </c>
       <c r="BL6" s="16">
         <v>14567</v>
       </c>
       <c r="BM6" s="17">
-        <f t="shared" ref="BM6:BM10" si="27">(BL6/BK6)*0.85</f>
+        <f t="shared" ref="BM6:BM10" si="19">(BL6/BK6)*0.85</f>
         <v>0.59060928731762063</v>
       </c>
       <c r="BN6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BO6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BQ6" s="15">
-        <f t="shared" ref="BQ6:BQ10" si="28">3600/BP6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BR6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BS6" s="18">
-        <f t="shared" si="8"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BT6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BW6" s="15">
-        <f t="shared" ref="BW6:BW10" si="29">3600/BV6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BX6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BY6" s="18">
-        <f t="shared" si="9"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BZ6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CB6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CC6" s="15">
-        <f t="shared" ref="CC6:CC10" si="30">3600/CB6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CD6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CE6" s="18">
-        <f t="shared" si="10"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CF6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="CG6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CH6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CI6" s="15">
-        <f t="shared" ref="CI6:CI10" si="31">3600/CH6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CJ6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CK6" s="18">
-        <f t="shared" si="11"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CL6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="CM6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CN6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CO6" s="15">
-        <f t="shared" ref="CO6:CO10" si="32">3600/CN6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CP6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CQ6" s="18">
-        <f t="shared" si="12"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CR6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="CS6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CT6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CU6" s="15">
-        <f t="shared" ref="CU6:CU10" si="33">3600/CT6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CV6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CW6" s="18">
-        <f t="shared" si="13"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CX6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="CY6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CZ6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DA6" s="15">
-        <f t="shared" ref="DA6:DA10" si="34">3600/CZ6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DB6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DC6" s="18">
-        <f t="shared" si="14"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DD6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="DE6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DF6" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DG6" s="15">
-        <f t="shared" ref="DG6:DG10" si="35">3600/DF6*$E$2*$F$1</f>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DH6" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DI6" s="18">
-        <f t="shared" si="15"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DJ6" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:114" ht="63">
+    </row>
+    <row r="7" spans="1:66" ht="63">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -2285,7 +1650,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0.59624017957351294</v>
       </c>
       <c r="L7" s="17" t="s">
@@ -2298,7 +1663,7 @@
         <v>1.4</v>
       </c>
       <c r="O7" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>50914.285714285717</v>
       </c>
       <c r="P7" s="16">
@@ -2338,7 +1703,7 @@
         <v>3.4</v>
       </c>
       <c r="AA7" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB7" s="16">
@@ -2358,7 +1723,7 @@
         <v>3.4</v>
       </c>
       <c r="AG7" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH7" s="16">
@@ -2378,7 +1743,7 @@
         <v>3.4</v>
       </c>
       <c r="AM7" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN7" s="16">
@@ -2398,7 +1763,7 @@
         <v>3.4</v>
       </c>
       <c r="AS7" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT7" s="16">
@@ -2418,7 +1783,7 @@
         <v>3.4</v>
       </c>
       <c r="AY7" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ7" s="16">
@@ -2438,7 +1803,7 @@
         <v>3.4</v>
       </c>
       <c r="BE7" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BF7" s="16">
@@ -2458,181 +1823,21 @@
         <v>3.4</v>
       </c>
       <c r="BK7" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BL7" s="16">
         <v>14567</v>
       </c>
       <c r="BM7" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="BN7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="BO7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BQ7" s="15">
-        <f t="shared" si="28"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BR7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BS7" s="18">
-        <f t="shared" si="8"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BT7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="BV7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BW7" s="15">
-        <f t="shared" si="29"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BX7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BY7" s="18">
-        <f t="shared" si="9"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BZ7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="CA7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="CB7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CC7" s="15">
-        <f t="shared" si="30"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CD7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CE7" s="18">
-        <f t="shared" si="10"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CF7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="CH7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CI7" s="15">
-        <f t="shared" si="31"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CJ7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CK7" s="18">
-        <f t="shared" si="11"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CL7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="CM7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CO7" s="15">
-        <f t="shared" si="32"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CP7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CQ7" s="18">
-        <f t="shared" si="12"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CR7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="CT7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CU7" s="15">
-        <f t="shared" si="33"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CV7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CW7" s="18">
-        <f t="shared" si="13"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CX7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="CY7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="CZ7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DA7" s="15">
-        <f t="shared" si="34"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DB7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DC7" s="18">
-        <f t="shared" si="14"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DD7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="DF7" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DG7" s="15">
-        <f t="shared" si="35"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DH7" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DI7" s="18">
-        <f t="shared" si="15"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DJ7" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:114" ht="31.5">
+    </row>
+    <row r="8" spans="1:66" ht="31.5">
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
@@ -2654,14 +1859,14 @@
         <v>3.4</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20964.705882352941</v>
       </c>
       <c r="J8" s="16">
         <v>10000</v>
       </c>
       <c r="K8" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0.40544332210998874</v>
       </c>
       <c r="L8" s="17" t="s">
@@ -2674,7 +1879,7 @@
         <v>3.4</v>
       </c>
       <c r="O8" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20964.705882352941</v>
       </c>
       <c r="P8" s="16">
@@ -2694,7 +1899,7 @@
         <v>3.4</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="V8" s="16">
@@ -2714,7 +1919,7 @@
         <v>3.4</v>
       </c>
       <c r="AA8" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB8" s="16">
@@ -2734,7 +1939,7 @@
         <v>3.4</v>
       </c>
       <c r="AG8" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH8" s="16">
@@ -2754,7 +1959,7 @@
         <v>3.4</v>
       </c>
       <c r="AM8" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN8" s="16">
@@ -2774,7 +1979,7 @@
         <v>3.4</v>
       </c>
       <c r="AS8" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT8" s="16">
@@ -2794,7 +1999,7 @@
         <v>3.4</v>
       </c>
       <c r="AY8" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ8" s="16">
@@ -2814,7 +2019,7 @@
         <v>3.4</v>
       </c>
       <c r="BE8" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BF8" s="16">
@@ -2834,181 +2039,21 @@
         <v>3.4</v>
       </c>
       <c r="BK8" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BL8" s="16">
         <v>14567</v>
       </c>
       <c r="BM8" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="BN8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="BO8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BQ8" s="15">
-        <f t="shared" si="28"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BR8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BS8" s="18">
-        <f t="shared" si="8"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BT8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="BU8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="BV8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BW8" s="15">
-        <f t="shared" si="29"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BX8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BY8" s="18">
-        <f t="shared" si="9"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BZ8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="CB8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CC8" s="15">
-        <f t="shared" si="30"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CD8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CE8" s="18">
-        <f t="shared" si="10"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CF8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="CG8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="CH8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CI8" s="15">
-        <f t="shared" si="31"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CJ8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CK8" s="18">
-        <f t="shared" si="11"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CL8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="CM8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="CN8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CO8" s="15">
-        <f t="shared" si="32"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CP8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CQ8" s="18">
-        <f t="shared" si="12"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CR8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="CS8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="CT8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CU8" s="15">
-        <f t="shared" si="33"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CV8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CW8" s="18">
-        <f t="shared" si="13"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CX8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="CY8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="CZ8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DA8" s="15">
-        <f t="shared" si="34"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DB8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DC8" s="18">
-        <f t="shared" si="14"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DD8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="DE8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="DF8" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DG8" s="15">
-        <f t="shared" si="35"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DH8" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DI8" s="18">
-        <f t="shared" si="15"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DJ8" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:114" ht="15.75">
+    </row>
+    <row r="9" spans="1:66" ht="15.75">
       <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
@@ -3024,14 +2069,14 @@
         <v>2.4</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>29700</v>
       </c>
       <c r="J9" s="16">
         <v>14567</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0.41690067340067338</v>
       </c>
       <c r="L9" s="17"/>
@@ -3042,7 +2087,7 @@
         <v>3.4</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20964.705882352941</v>
       </c>
       <c r="P9" s="16">
@@ -3060,7 +2105,7 @@
         <v>3.4</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="V9" s="16">
@@ -3078,7 +2123,7 @@
         <v>3.4</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB9" s="16">
@@ -3096,7 +2141,7 @@
         <v>3.4</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH9" s="16">
@@ -3114,7 +2159,7 @@
         <v>3.4</v>
       </c>
       <c r="AM9" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN9" s="16">
@@ -3132,7 +2177,7 @@
         <v>3.4</v>
       </c>
       <c r="AS9" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT9" s="16">
@@ -3150,7 +2195,7 @@
         <v>3.4</v>
       </c>
       <c r="AY9" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ9" s="16">
@@ -3168,7 +2213,7 @@
         <v>3.4</v>
       </c>
       <c r="BE9" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BF9" s="16">
@@ -3186,163 +2231,19 @@
         <v>3.4</v>
       </c>
       <c r="BK9" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BL9" s="16">
         <v>14567</v>
       </c>
       <c r="BM9" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="BN9" s="17"/>
-      <c r="BO9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BQ9" s="15">
-        <f t="shared" si="28"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BR9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BS9" s="18">
-        <f t="shared" si="8"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BW9" s="15">
-        <f t="shared" si="29"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BX9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BY9" s="18">
-        <f t="shared" si="9"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BZ9" s="19"/>
-      <c r="CA9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CB9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CC9" s="15">
-        <f t="shared" si="30"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CD9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CE9" s="18">
-        <f t="shared" si="10"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CH9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CI9" s="15">
-        <f t="shared" si="31"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CJ9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CK9" s="18">
-        <f t="shared" si="11"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CL9" s="19"/>
-      <c r="CM9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CN9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CO9" s="15">
-        <f t="shared" si="32"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CP9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CQ9" s="18">
-        <f t="shared" si="12"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CT9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CU9" s="15">
-        <f t="shared" si="33"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CV9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CW9" s="18">
-        <f t="shared" si="13"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CX9" s="19"/>
-      <c r="CY9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CZ9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DA9" s="15">
-        <f t="shared" si="34"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DB9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DC9" s="18">
-        <f t="shared" si="14"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DD9" s="19"/>
-      <c r="DE9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF9" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DG9" s="15">
-        <f t="shared" si="35"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DH9" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DI9" s="18">
-        <f t="shared" si="15"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DJ9" s="19"/>
-    </row>
-    <row r="10" spans="1:114" ht="15.75">
+    </row>
+    <row r="10" spans="1:66" ht="15.75">
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
@@ -3356,14 +2257,14 @@
         <v>3.4</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20964.705882352941</v>
       </c>
       <c r="J10" s="16">
         <v>14567</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="L10" s="17" t="s">
@@ -3374,7 +2275,7 @@
         <v>3.4</v>
       </c>
       <c r="O10" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20964.705882352941</v>
       </c>
       <c r="P10" s="16">
@@ -3392,7 +2293,7 @@
         <v>3.4</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>20964.705882352941</v>
       </c>
       <c r="V10" s="16">
@@ -3410,7 +2311,7 @@
         <v>3.4</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AB10" s="16">
@@ -3428,7 +2329,7 @@
         <v>3.4</v>
       </c>
       <c r="AG10" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AH10" s="16">
@@ -3446,7 +2347,7 @@
         <v>3.4</v>
       </c>
       <c r="AM10" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AN10" s="16">
@@ -3464,7 +2365,7 @@
         <v>3.4</v>
       </c>
       <c r="AS10" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AT10" s="16">
@@ -3482,7 +2383,7 @@
         <v>3.4</v>
       </c>
       <c r="AY10" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>20964.705882352941</v>
       </c>
       <c r="AZ10" s="16">
@@ -3500,7 +2401,7 @@
         <v>3.4</v>
       </c>
       <c r="BE10" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BF10" s="16">
@@ -3518,326 +2419,116 @@
         <v>3.4</v>
       </c>
       <c r="BK10" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>20964.705882352941</v>
       </c>
       <c r="BL10" s="16">
         <v>14567</v>
       </c>
       <c r="BM10" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.59060928731762063</v>
       </c>
       <c r="BN10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BQ10" s="15">
-        <f t="shared" si="28"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BR10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BS10" s="18">
-        <f t="shared" si="8"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BT10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="BW10" s="15">
-        <f t="shared" si="29"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="BX10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="BY10" s="18">
-        <f t="shared" si="9"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="BZ10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CC10" s="15">
-        <f t="shared" si="30"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CD10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CE10" s="18">
-        <f t="shared" si="10"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CF10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CI10" s="15">
-        <f t="shared" si="31"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CJ10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CK10" s="18">
-        <f t="shared" si="11"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CL10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="CM10" s="2"/>
-      <c r="CN10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CO10" s="15">
-        <f t="shared" si="32"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CP10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CQ10" s="18">
-        <f t="shared" si="12"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CR10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="CU10" s="15">
-        <f t="shared" si="33"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="CV10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="CW10" s="18">
-        <f t="shared" si="13"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="CX10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="CY10" s="2"/>
-      <c r="CZ10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DA10" s="15">
-        <f t="shared" si="34"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DB10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DC10" s="18">
-        <f t="shared" si="14"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DD10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="DE10" s="2"/>
-      <c r="DF10" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="DG10" s="15">
-        <f t="shared" si="35"/>
-        <v>20964.705882352941</v>
-      </c>
-      <c r="DH10" s="16">
-        <v>14567</v>
-      </c>
-      <c r="DI10" s="18">
-        <f t="shared" si="15"/>
-        <v>0.59060928731762063</v>
-      </c>
-      <c r="DJ10" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:114" ht="15.75">
+    </row>
+    <row r="11" spans="1:66" ht="15.75">
       <c r="A11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:114" ht="15.75">
-      <c r="A12" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:114" ht="15.75">
-      <c r="A13" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:114" ht="15.75">
-      <c r="A14" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:114" ht="15.75">
-      <c r="A15" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:114" ht="15.75">
-      <c r="A16" s="11" t="s">
-        <v>64</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" ht="15.75">
+      <c r="A12" s="25"/>
+    </row>
+    <row r="13" spans="1:66" ht="15.75">
+      <c r="A13" s="25"/>
+    </row>
+    <row r="14" spans="1:66" ht="15.75">
+      <c r="A14" s="25"/>
+    </row>
+    <row r="15" spans="1:66" ht="15.75">
+      <c r="A15" s="25"/>
+    </row>
+    <row r="16" spans="1:66" ht="15.75">
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="A19" s="25"/>
     </row>
     <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="A24" s="25"/>
     </row>
     <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:1" ht="15.75">
-      <c r="A29" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" spans="1:1" ht="15.75">
-      <c r="A30" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:1" ht="15.75">
-      <c r="A31" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" spans="1:1" ht="15.75">
-      <c r="A32" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1" ht="15.75">
-      <c r="A33" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="A33" s="25"/>
     </row>
     <row r="34" spans="1:1" ht="15.75">
-      <c r="A34" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" spans="1:1" ht="15.75">
-      <c r="A35" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" spans="1:1" ht="15.75">
-      <c r="A36" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" spans="1:1" ht="15.75">
-      <c r="A37" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" spans="1:1" ht="15.75">
-      <c r="A38" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" spans="1:1" ht="15.75">
-      <c r="A39" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" spans="1:1" ht="15.75">
-      <c r="A40" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A40" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="CG3:CL3"/>
-    <mergeCell ref="CM3:CR3"/>
-    <mergeCell ref="CS3:CX3"/>
-    <mergeCell ref="CY3:DD3"/>
-    <mergeCell ref="DE3:DJ3"/>
+  <mergeCells count="17">
     <mergeCell ref="BC3:BH3"/>
     <mergeCell ref="BI3:BN3"/>
-    <mergeCell ref="BO3:BT3"/>
-    <mergeCell ref="BU3:BZ3"/>
-    <mergeCell ref="CA3:CF3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="AE3:AJ3"/>
     <mergeCell ref="AK3:AP3"/>
